--- a/test/test_data1.xlsx
+++ b/test/test_data1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29325"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9A1DEE-D915-4733-AED4-49EE2AC32CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F4C15F0-7033-4F10-A5FB-3FBFBAF9774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Question</t>
   </si>
@@ -392,6 +392,150 @@
   </si>
   <si>
     <t>12)explain Figure 4.24 in RTE how received signal is hand overed to application</t>
+  </si>
+  <si>
+    <t>1) what are all the can container configuartion parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) what are all the can container configuartion </t>
+  </si>
+  <si>
+    <t>3) what are all can general configuration parameter</t>
+  </si>
+  <si>
+    <t>4) what are all can general configuration all parameter</t>
+  </si>
+  <si>
+    <t>5) what are all can general configuration all parameter from figure</t>
+  </si>
+  <si>
+    <t>6) what is the sub container of can general configuration</t>
+  </si>
+  <si>
+    <t>7) what are all can controller configuration all parameter</t>
+  </si>
+  <si>
+    <t>8) explain all can controller configuration all parameter</t>
+  </si>
+  <si>
+    <t>9) what is the sub container of can controller configuration</t>
+  </si>
+  <si>
+    <t>10) what is the only sub container of can controller configuration</t>
+  </si>
+  <si>
+    <t>11) what is the sub container of Can Controller Baud Rate Configuration</t>
+  </si>
+  <si>
+    <t>12) what are the all paremeters  of Can Controller Baud Rate Configuration</t>
+  </si>
+  <si>
+    <t>13) what are the all paremeters  of CanControllerFdBaudrate Configuration</t>
+  </si>
+  <si>
+    <t>14) what are the all parameters of Can Hardware Objects</t>
+  </si>
+  <si>
+    <t>15) what are the all parameters of Can Hardware Objects configurations</t>
+  </si>
+  <si>
+    <t>16) what is the sub conatiner of Can Hardware Objects configurations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17) what are the sub container  of Can container </t>
+  </si>
+  <si>
+    <t>18) what are all the Canif configuration containers</t>
+  </si>
+  <si>
+    <t>19) CAN Interface configuration containers</t>
+  </si>
+  <si>
+    <t>20) what are all CanIfTxPdu configuration all parameters</t>
+  </si>
+  <si>
+    <t>21) what are all CanIfRxPdu configuration all parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22) what are the CanIfHth configuration. give all parameters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23) what are the CanIfHrh configuration. give all parameters </t>
+  </si>
+  <si>
+    <t>24) what are the PDU Router Configuration</t>
+  </si>
+  <si>
+    <t>25) what are all the PDU Router Configuration containers</t>
+  </si>
+  <si>
+    <t>26) what are all the PDUR Configuration parameters, give all</t>
+  </si>
+  <si>
+    <t>27) what are the PduRGeneral all parameter</t>
+  </si>
+  <si>
+    <t>28) what are the PduRRoutingPathGroup all parameter</t>
+  </si>
+  <si>
+    <t>29) what are all the sub container of PduRRoutingPathGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30) give only all the sub container of  PduRRoutingPathGroup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31) what are the all parameter configuration of  PduRRoutingPath </t>
+  </si>
+  <si>
+    <t>32) what are the all parameter of PDU Router, CanIf and Com configuration</t>
+  </si>
+  <si>
+    <t>33) PDU Router, CanIf and Com configuration</t>
+  </si>
+  <si>
+    <t>31) what are all the sub containers of com</t>
+  </si>
+  <si>
+    <t>32) what are all the parameter configuration of com general</t>
+  </si>
+  <si>
+    <t>33) what are all the parameter configuration of ComFilter</t>
+  </si>
+  <si>
+    <t>34) what are all the SubContainer of ComIPdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35) what are all the parameter configuartion of ComTxIPdu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36) what are only all the SubContainer of ComTxIPdu </t>
+  </si>
+  <si>
+    <t>37) ComIPduGroup conatiner parameter</t>
+  </si>
+  <si>
+    <t>38) what are all the parameter configuration of ComSignal</t>
+  </si>
+  <si>
+    <t>39)  give ComSignalGroup all the parameters</t>
+  </si>
+  <si>
+    <t>40) give ComGroupSignal all the parameters</t>
+  </si>
+  <si>
+    <t>41) Give all RTE ECU Configuration parameters</t>
+  </si>
+  <si>
+    <t>42) Give all parameters of RTE runnable entity to task mapping from RTE ECU Configuration</t>
+  </si>
+  <si>
+    <t>43) Show me all RTE configuration parameters under RTE Configuration Overview</t>
+  </si>
+  <si>
+    <t>44) Give the RTE generation parameters including all default values, types, and purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45) what are the all parameters of the RTE runnable entity to task mapping </t>
   </si>
 </sst>
 </file>
@@ -429,7 +573,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -474,11 +618,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -495,6 +667,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1412,6 +1586,246 @@
         <v>119</v>
       </c>
     </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
